--- a/0_episodes.xlsx
+++ b/0_episodes.xlsx
@@ -4094,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D220" t="n">
         <v>0</v>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="E229" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -4261,16 +4261,16 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>-3.5</v>
+        <v>0</v>
       </c>
       <c r="C230" t="n">
-        <v>-5.5</v>
+        <v>0</v>
       </c>
       <c r="D230" t="n">
         <v>0</v>
       </c>
       <c r="E230" t="n">
-        <v>-4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -4284,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="D231" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E231" t="n">
         <v>0</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="D236" t="n">
         <v>0</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="D237" t="n">
-        <v>-8.5</v>
+        <v>0</v>
       </c>
       <c r="E237" t="n">
         <v>0</v>
@@ -4414,7 +4414,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -4434,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="D240" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>-4.5</v>
+        <v>0</v>
       </c>
       <c r="D246" t="n">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="E247" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -4573,10 +4573,10 @@
         <v>0</v>
       </c>
       <c r="D248" t="n">
-        <v>-7.5</v>
+        <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -4584,13 +4584,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
       </c>
       <c r="D249" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="E249" t="n">
         <v>0</v>
@@ -4607,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="D250" t="n">
-        <v>-6.5</v>
+        <v>0</v>
       </c>
       <c r="E250" t="n">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -8919,10 +8919,10 @@
         <v>502</v>
       </c>
       <c r="B504" t="n">
-        <v>0</v>
+        <v>-18.5</v>
       </c>
       <c r="C504" t="n">
-        <v>0</v>
+        <v>-19</v>
       </c>
       <c r="D504" t="n">
         <v>0</v>
@@ -8936,16 +8936,16 @@
         <v>503</v>
       </c>
       <c r="B505" t="n">
-        <v>-17</v>
+        <v>-20.5</v>
       </c>
       <c r="C505" t="n">
-        <v>-16.5</v>
+        <v>-41</v>
       </c>
       <c r="D505" t="n">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="E505" t="n">
-        <v>-13</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="506">
@@ -8956,13 +8956,13 @@
         <v>0</v>
       </c>
       <c r="C506" t="n">
-        <v>-7.5</v>
+        <v>0</v>
       </c>
       <c r="D506" t="n">
-        <v>0</v>
+        <v>-21.5</v>
       </c>
       <c r="E506" t="n">
-        <v>-13.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
@@ -8970,10 +8970,10 @@
         <v>505</v>
       </c>
       <c r="B507" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="C507" t="n">
-        <v>-14.5</v>
+        <v>0</v>
       </c>
       <c r="D507" t="n">
         <v>0</v>
@@ -9098,7 +9098,7 @@
         <v>0</v>
       </c>
       <c r="E514" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
     </row>
     <row r="515">
@@ -9106,16 +9106,16 @@
         <v>513</v>
       </c>
       <c r="B515" t="n">
-        <v>-19.875</v>
+        <v>-51.3875</v>
       </c>
       <c r="C515" t="n">
-        <v>-20</v>
+        <v>-24.5</v>
       </c>
       <c r="D515" t="n">
         <v>0</v>
       </c>
       <c r="E515" t="n">
-        <v>-25.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
@@ -9123,13 +9123,13 @@
         <v>514</v>
       </c>
       <c r="B516" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="C516" t="n">
-        <v>-21.5</v>
+        <v>0</v>
       </c>
       <c r="D516" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="E516" t="n">
         <v>0</v>
@@ -9143,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="C517" t="n">
-        <v>-23.5</v>
+        <v>0</v>
       </c>
       <c r="D517" t="n">
         <v>0</v>
@@ -9276,7 +9276,7 @@
         <v>523</v>
       </c>
       <c r="B525" t="n">
-        <v>-30.25</v>
+        <v>0</v>
       </c>
       <c r="C525" t="n">
         <v>0</v>
@@ -9285,7 +9285,7 @@
         <v>0</v>
       </c>
       <c r="E525" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="526">
@@ -9293,13 +9293,13 @@
         <v>524</v>
       </c>
       <c r="B526" t="n">
-        <v>-6.5</v>
+        <v>0</v>
       </c>
       <c r="C526" t="n">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="D526" t="n">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="E526" t="n">
         <v>0</v>
@@ -9310,16 +9310,16 @@
         <v>525</v>
       </c>
       <c r="B527" t="n">
-        <v>-15.5</v>
+        <v>0</v>
       </c>
       <c r="C527" t="n">
         <v>0</v>
       </c>
       <c r="D527" t="n">
-        <v>-18.5</v>
+        <v>0</v>
       </c>
       <c r="E527" t="n">
-        <v>-16.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
@@ -9333,10 +9333,10 @@
         <v>0</v>
       </c>
       <c r="D528" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="E528" t="n">
-        <v>-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
@@ -9350,7 +9350,7 @@
         <v>0</v>
       </c>
       <c r="D529" t="n">
-        <v>-17.5</v>
+        <v>0</v>
       </c>
       <c r="E529" t="n">
         <v>0</v>
@@ -9446,7 +9446,7 @@
         <v>533</v>
       </c>
       <c r="B535" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="C535" t="n">
         <v>0</v>
@@ -9463,13 +9463,13 @@
         <v>534</v>
       </c>
       <c r="B536" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="C536" t="n">
-        <v>-22.5</v>
+        <v>0</v>
       </c>
       <c r="D536" t="n">
-        <v>-24.5</v>
+        <v>0</v>
       </c>
       <c r="E536" t="n">
         <v>0</v>
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="D537" t="n">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="E537" t="n">
         <v>0</v>
@@ -9633,7 +9633,7 @@
         <v>544</v>
       </c>
       <c r="B546" t="n">
-        <v>-5.5</v>
+        <v>0</v>
       </c>
       <c r="C546" t="n">
         <v>0</v>
@@ -9642,7 +9642,7 @@
         <v>0</v>
       </c>
       <c r="E546" t="n">
-        <v>-23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
@@ -9650,7 +9650,7 @@
         <v>545</v>
       </c>
       <c r="B547" t="n">
-        <v>-23.5</v>
+        <v>0</v>
       </c>
       <c r="C547" t="n">
         <v>0</v>
@@ -14039,7 +14039,7 @@
         <v>0</v>
       </c>
       <c r="C805" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D805" t="n">
         <v>0</v>
@@ -14062,7 +14062,7 @@
         <v>0</v>
       </c>
       <c r="E806" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
     </row>
     <row r="807">
@@ -14073,7 +14073,7 @@
         <v>0</v>
       </c>
       <c r="C807" t="n">
-        <v>0</v>
+        <v>-31</v>
       </c>
       <c r="D807" t="n">
         <v>0</v>
@@ -14189,7 +14189,7 @@
         <v>812</v>
       </c>
       <c r="B814" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C814" t="n">
         <v>0</v>
@@ -14206,13 +14206,13 @@
         <v>813</v>
       </c>
       <c r="B815" t="n">
-        <v>0</v>
+        <v>-4.5</v>
       </c>
       <c r="C815" t="n">
         <v>0</v>
       </c>
       <c r="D815" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E815" t="n">
         <v>0</v>
@@ -14229,7 +14229,7 @@
         <v>0</v>
       </c>
       <c r="D816" t="n">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="E816" t="n">
         <v>0</v>
@@ -14240,13 +14240,13 @@
         <v>815</v>
       </c>
       <c r="B817" t="n">
-        <v>0</v>
+        <v>-20.5</v>
       </c>
       <c r="C817" t="n">
         <v>0</v>
       </c>
       <c r="D817" t="n">
-        <v>0</v>
+        <v>-16.5</v>
       </c>
       <c r="E817" t="n">
         <v>0</v>
@@ -14376,7 +14376,7 @@
         <v>823</v>
       </c>
       <c r="B825" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="C825" t="n">
         <v>0</v>
@@ -14546,7 +14546,7 @@
         <v>833</v>
       </c>
       <c r="B835" t="n">
-        <v>0</v>
+        <v>-3.5</v>
       </c>
       <c r="C835" t="n">
         <v>0</v>
@@ -14569,10 +14569,10 @@
         <v>0</v>
       </c>
       <c r="D836" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E836" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="837">
@@ -14586,7 +14586,7 @@
         <v>0</v>
       </c>
       <c r="D837" t="n">
-        <v>0</v>
+        <v>-3.25</v>
       </c>
       <c r="E837" t="n">
         <v>0</v>
@@ -14750,7 +14750,7 @@
         <v>845</v>
       </c>
       <c r="B847" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C847" t="n">
         <v>0</v>
@@ -14920,7 +14920,7 @@
         <v>855</v>
       </c>
       <c r="B857" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="C857" t="n">
         <v>0</v>
@@ -17402,7 +17402,7 @@
         <v>1001</v>
       </c>
       <c r="B1003" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="C1003" t="n">
         <v>0</v>
@@ -17411,7 +17411,7 @@
         <v>0</v>
       </c>
       <c r="E1003" t="n">
-        <v>0</v>
+        <v>-22.25</v>
       </c>
     </row>
     <row r="1004">
@@ -17419,16 +17419,16 @@
         <v>1002</v>
       </c>
       <c r="B1004" t="n">
-        <v>0</v>
+        <v>-15.375</v>
       </c>
       <c r="C1004" t="n">
-        <v>0</v>
+        <v>-17.25</v>
       </c>
       <c r="D1004" t="n">
-        <v>0</v>
+        <v>-14.5</v>
       </c>
       <c r="E1004" t="n">
-        <v>0</v>
+        <v>-21.5</v>
       </c>
     </row>
     <row r="1005">
@@ -17439,7 +17439,7 @@
         <v>0</v>
       </c>
       <c r="C1005" t="n">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="D1005" t="n">
         <v>0</v>
@@ -17572,7 +17572,7 @@
         <v>1011</v>
       </c>
       <c r="B1013" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="C1013" t="n">
         <v>0</v>
@@ -17581,7 +17581,7 @@
         <v>0</v>
       </c>
       <c r="E1013" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
     </row>
     <row r="1014">
@@ -17589,16 +17589,16 @@
         <v>1012</v>
       </c>
       <c r="B1014" t="n">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="C1014" t="n">
-        <v>0</v>
+        <v>-28.25</v>
       </c>
       <c r="D1014" t="n">
         <v>0</v>
       </c>
       <c r="E1014" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="1015">
@@ -17609,13 +17609,13 @@
         <v>0</v>
       </c>
       <c r="C1015" t="n">
-        <v>0</v>
+        <v>-24.25</v>
       </c>
       <c r="D1015" t="n">
         <v>0</v>
       </c>
       <c r="E1015" t="n">
-        <v>0</v>
+        <v>-18.5</v>
       </c>
     </row>
     <row r="1016">
@@ -17623,7 +17623,7 @@
         <v>1014</v>
       </c>
       <c r="B1016" t="n">
-        <v>0</v>
+        <v>-19</v>
       </c>
       <c r="C1016" t="n">
         <v>0</v>
@@ -17728,13 +17728,13 @@
         <v>0</v>
       </c>
       <c r="C1022" t="n">
-        <v>0</v>
+        <v>-7.5</v>
       </c>
       <c r="D1022" t="n">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="E1022" t="n">
-        <v>0</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="1023">
@@ -17742,13 +17742,13 @@
         <v>1021</v>
       </c>
       <c r="B1023" t="n">
-        <v>0</v>
+        <v>-25.25</v>
       </c>
       <c r="C1023" t="n">
-        <v>0</v>
+        <v>-11.5</v>
       </c>
       <c r="D1023" t="n">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="E1023" t="n">
         <v>0</v>
@@ -17759,13 +17759,13 @@
         <v>1022</v>
       </c>
       <c r="B1024" t="n">
-        <v>0</v>
+        <v>-20.5</v>
       </c>
       <c r="C1024" t="n">
         <v>0</v>
       </c>
       <c r="D1024" t="n">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="E1024" t="n">
         <v>0</v>
@@ -17776,10 +17776,10 @@
         <v>1023</v>
       </c>
       <c r="B1025" t="n">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="C1025" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D1025" t="n">
         <v>0</v>
@@ -17895,16 +17895,16 @@
         <v>1030</v>
       </c>
       <c r="B1032" t="n">
-        <v>0</v>
+        <v>-10.5</v>
       </c>
       <c r="C1032" t="n">
         <v>0</v>
       </c>
       <c r="D1032" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="E1032" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="1033">
@@ -17912,16 +17912,16 @@
         <v>1031</v>
       </c>
       <c r="B1033" t="n">
-        <v>0</v>
+        <v>-15.25</v>
       </c>
       <c r="C1033" t="n">
         <v>0</v>
       </c>
       <c r="D1033" t="n">
-        <v>0</v>
+        <v>-9.5</v>
       </c>
       <c r="E1033" t="n">
-        <v>0</v>
+        <v>-8.5</v>
       </c>
     </row>
     <row r="1034">
@@ -17935,7 +17935,7 @@
         <v>0</v>
       </c>
       <c r="D1034" t="n">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="E1034" t="n">
         <v>0</v>
@@ -17952,10 +17952,10 @@
         <v>0</v>
       </c>
       <c r="D1035" t="n">
-        <v>0</v>
+        <v>-5.5</v>
       </c>
       <c r="E1035" t="n">
-        <v>0</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="1036">
@@ -17969,7 +17969,7 @@
         <v>0</v>
       </c>
       <c r="D1036" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E1036" t="n">
         <v>0</v>
